--- a/data/points.xlsx
+++ b/data/points.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BaiTa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7753CF4-CFB5-4758-A670-E6CA5EE751D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A14919-B1A6-419B-B9DA-FB620E7B8416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3960" windowWidth="19215" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>lng</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,13 +33,175 @@
   <si>
     <t>lat</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.559695</t>
+  </si>
+  <si>
+    <t>31.341857</t>
+  </si>
+  <si>
+    <t>120.631835</t>
+  </si>
+  <si>
+    <t>31.300972</t>
+  </si>
+  <si>
+    <t>120.592347</t>
+  </si>
+  <si>
+    <t>31.301974</t>
+  </si>
+  <si>
+    <t>120.552386</t>
+  </si>
+  <si>
+    <t>31.860523</t>
+  </si>
+  <si>
+    <t>120.736696</t>
+  </si>
+  <si>
+    <t>31.338091</t>
+  </si>
+  <si>
+    <t>120.625855</t>
+  </si>
+  <si>
+    <t>31.282041</t>
+  </si>
+  <si>
+    <t>120.624367</t>
+  </si>
+  <si>
+    <t>31.317897</t>
+  </si>
+  <si>
+    <t>120.594289</t>
+  </si>
+  <si>
+    <t>31.268886</t>
+  </si>
+  <si>
+    <t>120.674556</t>
+  </si>
+  <si>
+    <t>31.316797</t>
+  </si>
+  <si>
+    <t>120.551021</t>
+  </si>
+  <si>
+    <t>31.320359</t>
+  </si>
+  <si>
+    <t>120.522033</t>
+  </si>
+  <si>
+    <t>31.255714</t>
+  </si>
+  <si>
+    <t>120.518987</t>
+  </si>
+  <si>
+    <t>31.238680</t>
+  </si>
+  <si>
+    <t>120.586577</t>
+  </si>
+  <si>
+    <t>31.213803</t>
+  </si>
+  <si>
+    <t>120.409851</t>
+  </si>
+  <si>
+    <t>31.083895</t>
+  </si>
+  <si>
+    <t>120.309444</t>
+  </si>
+  <si>
+    <t>31.135168</t>
+  </si>
+  <si>
+    <t>120.671569</t>
+  </si>
+  <si>
+    <t>31.248727</t>
+  </si>
+  <si>
+    <t>120.783825</t>
+  </si>
+  <si>
+    <t>31.307193</t>
+  </si>
+  <si>
+    <t>120.630253</t>
+  </si>
+  <si>
+    <t>31.251691</t>
+  </si>
+  <si>
+    <t>120.633509</t>
+  </si>
+  <si>
+    <t>31.365669</t>
+  </si>
+  <si>
+    <t>120.520042</t>
+  </si>
+  <si>
+    <t>31.298302</t>
+  </si>
+  <si>
+    <t>120.646686</t>
+  </si>
+  <si>
+    <t>31.460331</t>
+  </si>
+  <si>
+    <t>120.731460</t>
+  </si>
+  <si>
+    <t>31.491690</t>
+  </si>
+  <si>
+    <t>120.600419</t>
+  </si>
+  <si>
+    <t>31.506777</t>
+  </si>
+  <si>
+    <t>120.454455</t>
+  </si>
+  <si>
+    <t>31.421560</t>
+  </si>
+  <si>
+    <t>120.388781</t>
+  </si>
+  <si>
+    <t>31.294229</t>
+  </si>
+  <si>
+    <t>120.404656</t>
+  </si>
+  <si>
+    <t>31.334374</t>
+  </si>
+  <si>
+    <t>120.482365</t>
+  </si>
+  <si>
+    <t>31.236692</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +214,19 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -75,8 +250,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,13 +541,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -374,59 +562,395 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>120.614991</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31.332438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>120.592828</v>
+      </c>
+      <c r="B11" s="3">
+        <v>31.305809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>120.6147</v>
+      </c>
+      <c r="B12" s="3">
+        <v>31.290942999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>120.55792</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31.287635000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>120.633509</v>
+      </c>
+      <c r="B16" s="3">
+        <v>31.365669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>120.506979</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31.159777999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>120.78943200000001</v>
+      </c>
+      <c r="B24" s="3">
+        <v>31.358833000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>120.69220199999999</v>
+      </c>
+      <c r="B25" s="3">
+        <v>31.345794000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>120.769119</v>
+      </c>
+      <c r="B26" s="3">
+        <v>31.277774999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>120.68384</v>
+      </c>
+      <c r="B28" s="3">
+        <v>31.269715000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>120.76011699999999</v>
+      </c>
+      <c r="B29" s="2">
+        <v>31.298123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>120.830271</v>
+      </c>
+      <c r="B30" s="3">
+        <v>31.303177999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>120.869243</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31.263802999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>120.68384</v>
+      </c>
+      <c r="B36" s="1">
+        <v>31.269715000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>120.590236</v>
+      </c>
+      <c r="B38" s="3">
+        <v>31.387039000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>120.655232</v>
+      </c>
+      <c r="B39" s="2">
+        <v>31.394134999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>120.701369</v>
+      </c>
+      <c r="B41" s="3">
+        <v>31.431494000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>120.55376099999999</v>
+      </c>
+      <c r="B43" s="3">
+        <v>31.446615999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>120.526841</v>
+      </c>
+      <c r="B44" s="3">
+        <v>31.443892000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>120.49171</v>
+      </c>
+      <c r="B46" s="3">
+        <v>31.359943999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/points.xlsx
+++ b/data/points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BaiTa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A14919-B1A6-419B-B9DA-FB620E7B8416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137C081-0165-4D64-9D4D-1A8B95F6C348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="2130" windowWidth="11175" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>lng</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,168 +33,6 @@
   <si>
     <t>lat</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.559695</t>
-  </si>
-  <si>
-    <t>31.341857</t>
-  </si>
-  <si>
-    <t>120.631835</t>
-  </si>
-  <si>
-    <t>31.300972</t>
-  </si>
-  <si>
-    <t>120.592347</t>
-  </si>
-  <si>
-    <t>31.301974</t>
-  </si>
-  <si>
-    <t>120.552386</t>
-  </si>
-  <si>
-    <t>31.860523</t>
-  </si>
-  <si>
-    <t>120.736696</t>
-  </si>
-  <si>
-    <t>31.338091</t>
-  </si>
-  <si>
-    <t>120.625855</t>
-  </si>
-  <si>
-    <t>31.282041</t>
-  </si>
-  <si>
-    <t>120.624367</t>
-  </si>
-  <si>
-    <t>31.317897</t>
-  </si>
-  <si>
-    <t>120.594289</t>
-  </si>
-  <si>
-    <t>31.268886</t>
-  </si>
-  <si>
-    <t>120.674556</t>
-  </si>
-  <si>
-    <t>31.316797</t>
-  </si>
-  <si>
-    <t>120.551021</t>
-  </si>
-  <si>
-    <t>31.320359</t>
-  </si>
-  <si>
-    <t>120.522033</t>
-  </si>
-  <si>
-    <t>31.255714</t>
-  </si>
-  <si>
-    <t>120.518987</t>
-  </si>
-  <si>
-    <t>31.238680</t>
-  </si>
-  <si>
-    <t>120.586577</t>
-  </si>
-  <si>
-    <t>31.213803</t>
-  </si>
-  <si>
-    <t>120.409851</t>
-  </si>
-  <si>
-    <t>31.083895</t>
-  </si>
-  <si>
-    <t>120.309444</t>
-  </si>
-  <si>
-    <t>31.135168</t>
-  </si>
-  <si>
-    <t>120.671569</t>
-  </si>
-  <si>
-    <t>31.248727</t>
-  </si>
-  <si>
-    <t>120.783825</t>
-  </si>
-  <si>
-    <t>31.307193</t>
-  </si>
-  <si>
-    <t>120.630253</t>
-  </si>
-  <si>
-    <t>31.251691</t>
-  </si>
-  <si>
-    <t>120.633509</t>
-  </si>
-  <si>
-    <t>31.365669</t>
-  </si>
-  <si>
-    <t>120.520042</t>
-  </si>
-  <si>
-    <t>31.298302</t>
-  </si>
-  <si>
-    <t>120.646686</t>
-  </si>
-  <si>
-    <t>31.460331</t>
-  </si>
-  <si>
-    <t>120.731460</t>
-  </si>
-  <si>
-    <t>31.491690</t>
-  </si>
-  <si>
-    <t>120.600419</t>
-  </si>
-  <si>
-    <t>31.506777</t>
-  </si>
-  <si>
-    <t>120.454455</t>
-  </si>
-  <si>
-    <t>31.421560</t>
-  </si>
-  <si>
-    <t>120.388781</t>
-  </si>
-  <si>
-    <t>31.294229</t>
-  </si>
-  <si>
-    <t>120.404656</t>
-  </si>
-  <si>
-    <t>31.334374</t>
-  </si>
-  <si>
-    <t>120.482365</t>
-  </si>
-  <si>
-    <t>31.236692</t>
   </si>
 </sst>
 </file>
@@ -562,396 +400,248 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>120.614991</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>31.332438</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>120.592828</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>31.305809</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>120.6147</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>31.290942999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>120.55792</v>
-      </c>
-      <c r="B15" s="1">
-        <v>31.287635000000002</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>120.633509</v>
-      </c>
-      <c r="B16" s="3">
-        <v>31.365669</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>120.506979</v>
-      </c>
-      <c r="B21" s="2">
-        <v>31.159777999999999</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>120.78943200000001</v>
-      </c>
-      <c r="B24" s="3">
-        <v>31.358833000000001</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>120.69220199999999</v>
-      </c>
-      <c r="B25" s="3">
-        <v>31.345794000000001</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>120.769119</v>
-      </c>
-      <c r="B26" s="3">
-        <v>31.277774999999998</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>120.68384</v>
-      </c>
-      <c r="B28" s="3">
-        <v>31.269715000000001</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>120.76011699999999</v>
-      </c>
-      <c r="B29" s="2">
-        <v>31.298123</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>120.830271</v>
-      </c>
-      <c r="B30" s="3">
-        <v>31.303177999999999</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>120.869243</v>
-      </c>
-      <c r="B32" s="2">
-        <v>31.263802999999999</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>120.68384</v>
-      </c>
-      <c r="B36" s="1">
-        <v>31.269715000000001</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>120.590236</v>
-      </c>
-      <c r="B38" s="3">
-        <v>31.387039000000001</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>120.655232</v>
-      </c>
-      <c r="B39" s="2">
-        <v>31.394134999999999</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>120.701369</v>
-      </c>
-      <c r="B41" s="3">
-        <v>31.431494000000001</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>120.55376099999999</v>
-      </c>
-      <c r="B43" s="3">
-        <v>31.446615999999999</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>120.526841</v>
-      </c>
-      <c r="B44" s="3">
-        <v>31.443892000000002</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>120.49171</v>
-      </c>
-      <c r="B46" s="3">
-        <v>31.359943999999999</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
